--- a/Data/Transitions/19591968Translation.xlsx
+++ b/Data/Transitions/19591968Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="648">
   <si>
     <t>id</t>
   </si>
@@ -460,7 +460,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -661,7 +661,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1733,9 +1733,6 @@
   </si>
   <si>
     <t>{237.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3938,7 +3935,7 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>573</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3949,7 +3946,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3960,7 +3957,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4147,7 +4144,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4202,7 +4199,7 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4213,7 +4210,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4257,7 +4254,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4356,7 +4353,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4367,7 +4364,7 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4510,7 +4507,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4532,7 +4529,7 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4554,7 +4551,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4675,7 +4672,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>573</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4730,7 +4727,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4752,7 +4749,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4807,7 +4804,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4873,7 +4870,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4928,7 +4925,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5027,7 +5024,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5093,7 +5090,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5159,7 +5156,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5170,7 +5167,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5324,7 +5321,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5368,7 +5365,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5379,7 +5376,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5467,7 +5464,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5478,7 +5475,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5555,7 +5552,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5643,7 +5640,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5676,7 +5673,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5698,7 +5695,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5731,7 +5728,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5753,7 +5750,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5775,7 +5772,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5797,7 +5794,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5852,7 +5849,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6006,7 +6003,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6017,7 +6014,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6061,7 +6058,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6083,7 +6080,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6182,7 +6179,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6204,7 +6201,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6292,7 +6289,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6391,7 +6388,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6402,7 +6399,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6413,7 +6410,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6424,7 +6421,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6512,7 +6509,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6578,7 +6575,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6589,7 +6586,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6633,7 +6630,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6710,7 +6707,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6809,7 +6806,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7117,7 +7114,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7172,7 +7169,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7194,7 +7191,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7216,7 +7213,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7249,7 +7246,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7271,7 +7268,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7282,7 +7279,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7293,7 +7290,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7326,7 +7323,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7458,7 +7455,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7546,7 +7543,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7590,7 +7587,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7612,7 +7609,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7667,7 +7664,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7711,7 +7708,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7733,7 +7730,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7854,7 +7851,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7920,7 +7917,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8008,7 +8005,7 @@
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8030,7 +8027,7 @@
         <v>520</v>
       </c>
       <c r="C519" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -8052,7 +8049,7 @@
         <v>522</v>
       </c>
       <c r="C521" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -8063,7 +8060,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8085,7 +8082,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8107,7 +8104,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="527" spans="1:3">
